--- a/Code/Results/Cases/Case_5_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_241/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.492166546859323</v>
+        <v>1.704230555368213</v>
       </c>
       <c r="C2">
-        <v>1.498530536136627</v>
+        <v>0.7115922907102572</v>
       </c>
       <c r="D2">
-        <v>0.02195262508735141</v>
+        <v>0.06462893496600586</v>
       </c>
       <c r="E2">
-        <v>0.107199028942599</v>
+        <v>0.126717272406907</v>
       </c>
       <c r="F2">
-        <v>2.963730669201539</v>
+        <v>2.986501631082632</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.224502591129337</v>
+        <v>1.363216454538374</v>
       </c>
       <c r="J2">
-        <v>0.2372417913681488</v>
+        <v>0.2204158715211832</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.014288461580179</v>
+        <v>1.586601651986484</v>
       </c>
       <c r="C3">
-        <v>1.292029301575951</v>
+        <v>0.6620414870534432</v>
       </c>
       <c r="D3">
-        <v>0.01964583753724369</v>
+        <v>0.06429010423659065</v>
       </c>
       <c r="E3">
-        <v>0.09532147589374063</v>
+        <v>0.1246604846344717</v>
       </c>
       <c r="F3">
-        <v>2.680685796016974</v>
+        <v>2.938505611647486</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.133109621605129</v>
+        <v>1.350534565481667</v>
       </c>
       <c r="J3">
-        <v>0.2104216981479397</v>
+        <v>0.215419335374591</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.725792844507851</v>
+        <v>1.515334518319605</v>
       </c>
       <c r="C4">
-        <v>1.167903851331573</v>
+        <v>0.6320526742333641</v>
       </c>
       <c r="D4">
-        <v>0.01823297808495994</v>
+        <v>0.06409995989444539</v>
       </c>
       <c r="E4">
-        <v>0.08822173708061243</v>
+        <v>0.1234666764559051</v>
       </c>
       <c r="F4">
-        <v>2.514758160677061</v>
+        <v>2.910970408700209</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.080532282025708</v>
+        <v>1.343614453065243</v>
       </c>
       <c r="J4">
-        <v>0.1945008700638908</v>
+        <v>0.2124921238356663</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.609278938375212</v>
+        <v>1.486532062299716</v>
       </c>
       <c r="C5">
-        <v>1.117893909460349</v>
+        <v>0.6199403482800676</v>
       </c>
       <c r="D5">
-        <v>0.01765798809728381</v>
+        <v>0.06402702871518784</v>
       </c>
       <c r="E5">
-        <v>0.08537150477264177</v>
+        <v>0.1229975236956768</v>
       </c>
       <c r="F5">
-        <v>2.448902603413927</v>
+        <v>2.900232230864759</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.059905288702701</v>
+        <v>1.341010528148999</v>
       </c>
       <c r="J5">
-        <v>0.188134259942899</v>
+        <v>0.2113344033914828</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.589990208277584</v>
+        <v>1.481763864135303</v>
       </c>
       <c r="C6">
-        <v>1.109621666895578</v>
+        <v>0.6179356167092465</v>
       </c>
       <c r="D6">
-        <v>0.01756255446676747</v>
+        <v>0.06401519519098642</v>
       </c>
       <c r="E6">
-        <v>0.08490066816074915</v>
+        <v>0.122920667204145</v>
       </c>
       <c r="F6">
-        <v>2.438067804418623</v>
+        <v>2.898478203933479</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.056525937471903</v>
+        <v>1.340591145240332</v>
       </c>
       <c r="J6">
-        <v>0.1870839685188344</v>
+        <v>0.2111442805295667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.724217478374726</v>
+        <v>1.514945110331269</v>
       </c>
       <c r="C7">
-        <v>1.167227205828397</v>
+        <v>0.6318888859561298</v>
       </c>
       <c r="D7">
-        <v>0.01822522062425236</v>
+        <v>0.0640989578083726</v>
       </c>
       <c r="E7">
-        <v>0.08818313085621199</v>
+        <v>0.1234602791568271</v>
       </c>
       <c r="F7">
-        <v>2.513863148100796</v>
+        <v>2.910823640692897</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.080250979142662</v>
+        <v>1.343578463156391</v>
       </c>
       <c r="J7">
-        <v>0.1944145370591031</v>
+        <v>0.212476368429428</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.32625303224404</v>
+        <v>1.663472547840229</v>
       </c>
       <c r="C8">
-        <v>1.426712702588645</v>
+        <v>0.6944160393873631</v>
       </c>
       <c r="D8">
-        <v>0.02115642989803135</v>
+        <v>0.06450842268690948</v>
       </c>
       <c r="E8">
-        <v>0.1030600106850876</v>
+        <v>0.125993735023922</v>
       </c>
       <c r="F8">
-        <v>2.8643678229827</v>
+        <v>2.969548761537482</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.192198192101984</v>
+        <v>1.358662755243699</v>
       </c>
       <c r="J8">
-        <v>0.2278704142008792</v>
+        <v>0.2186637237227274</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.55556566994602</v>
+        <v>1.962409578618633</v>
       </c>
       <c r="C9">
-        <v>1.961799944051393</v>
+        <v>0.8205485658610314</v>
       </c>
       <c r="D9">
-        <v>0.02694013055684508</v>
+        <v>0.06545117601579165</v>
       </c>
       <c r="E9">
-        <v>0.1340533827884016</v>
+        <v>0.1315118951701102</v>
       </c>
       <c r="F9">
-        <v>3.62514722609086</v>
+        <v>3.100240432245783</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.444452947137634</v>
+        <v>1.395205310009516</v>
       </c>
       <c r="J9">
-        <v>0.2986496977374316</v>
+        <v>0.2319248999536256</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.504084915386841</v>
+        <v>2.186854196268257</v>
       </c>
       <c r="C10">
-        <v>2.37916166263085</v>
+        <v>0.9154579630124999</v>
       </c>
       <c r="D10">
-        <v>0.03122550439221072</v>
+        <v>0.06622621222041403</v>
       </c>
       <c r="E10">
-        <v>0.158398657284927</v>
+        <v>0.1359049820292739</v>
       </c>
       <c r="F10">
-        <v>4.246692415705496</v>
+        <v>3.205994922406006</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.657230629147904</v>
+        <v>1.426421110286142</v>
       </c>
       <c r="J10">
-        <v>0.355152705550978</v>
+        <v>0.2423728667186822</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.949673644507982</v>
+        <v>2.290037890962651</v>
       </c>
       <c r="C11">
-        <v>2.576535493645054</v>
+        <v>0.9591429206125781</v>
       </c>
       <c r="D11">
-        <v>0.03318718057821712</v>
+        <v>0.06659611178709213</v>
       </c>
       <c r="E11">
-        <v>0.1699417083954629</v>
+        <v>0.1379779485213604</v>
       </c>
       <c r="F11">
-        <v>4.54786985604494</v>
+        <v>3.256278357772828</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.762016414495264</v>
+        <v>1.441597586395034</v>
       </c>
       <c r="J11">
-        <v>0.382200563745954</v>
+        <v>0.2472829179435792</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.120861249237066</v>
+        <v>2.329268775899891</v>
       </c>
       <c r="C12">
-        <v>2.65258361581698</v>
+        <v>0.9757602543107282</v>
       </c>
       <c r="D12">
-        <v>0.03393222491209968</v>
+        <v>0.06673862651983598</v>
       </c>
       <c r="E12">
-        <v>0.1743927799494855</v>
+        <v>0.1387737041176109</v>
       </c>
       <c r="F12">
-        <v>4.665056479148802</v>
+        <v>3.275636784759627</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.803050352963609</v>
+        <v>1.447487059101348</v>
       </c>
       <c r="J12">
-        <v>0.3926731811541515</v>
+        <v>0.249165134036474</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.083876274439319</v>
+        <v>2.320812670831742</v>
       </c>
       <c r="C13">
-        <v>2.636143119977476</v>
+        <v>0.9721780648827689</v>
       </c>
       <c r="D13">
-        <v>0.0337716604130236</v>
+        <v>0.06670782561718624</v>
       </c>
       <c r="E13">
-        <v>0.1734303803905917</v>
+        <v>0.1386018441569092</v>
       </c>
       <c r="F13">
-        <v>4.639670037339187</v>
+        <v>3.271453423834743</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.79414910087857</v>
+        <v>1.446212285892841</v>
       </c>
       <c r="J13">
-        <v>0.3904068206436904</v>
+        <v>0.2487587427600886</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.96370549359392</v>
+        <v>2.293262273344112</v>
       </c>
       <c r="C14">
-        <v>2.582764383053757</v>
+        <v>0.9605085314994426</v>
       </c>
       <c r="D14">
-        <v>0.03324842887396073</v>
+        <v>0.06660778790845256</v>
       </c>
       <c r="E14">
-        <v>0.1703062177901629</v>
+        <v>0.1380431997022384</v>
       </c>
       <c r="F14">
-        <v>4.557444901167713</v>
+        <v>3.257864605058842</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.765363867922474</v>
+        <v>1.442079249507671</v>
       </c>
       <c r="J14">
-        <v>0.3830573046292614</v>
+        <v>0.247437308705031</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.890430724663133</v>
+        <v>2.276407419070324</v>
       </c>
       <c r="C15">
-        <v>2.550245977724614</v>
+        <v>0.9533703878877873</v>
       </c>
       <c r="D15">
-        <v>0.0329282356256968</v>
+        <v>0.06654682843423387</v>
       </c>
       <c r="E15">
-        <v>0.168403404655983</v>
+        <v>0.1377024177326405</v>
       </c>
       <c r="F15">
-        <v>4.507504090767384</v>
+        <v>3.249582498917107</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.747915073502128</v>
+        <v>1.439566261556735</v>
       </c>
       <c r="J15">
-        <v>0.3785866950289432</v>
+        <v>0.2466308810145676</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.475283109440284</v>
+        <v>2.180132835181212</v>
       </c>
       <c r="C16">
-        <v>2.366432482516188</v>
+        <v>0.9126134354957571</v>
       </c>
       <c r="D16">
-        <v>0.03109758608122348</v>
+        <v>0.0662023828362166</v>
       </c>
       <c r="E16">
-        <v>0.15765474583079</v>
+        <v>0.1357710128125618</v>
       </c>
       <c r="F16">
-        <v>4.22742040019989</v>
+        <v>3.202752926076101</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.650560151625641</v>
+        <v>1.425449114453656</v>
       </c>
       <c r="J16">
-        <v>0.3534151242210868</v>
+        <v>0.2420551706396736</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.224495713021611</v>
+        <v>2.121350035276237</v>
       </c>
       <c r="C17">
-        <v>2.255742412022357</v>
+        <v>0.8877420390747943</v>
       </c>
       <c r="D17">
-        <v>0.02997796170479461</v>
+        <v>0.06599547948132312</v>
       </c>
       <c r="E17">
-        <v>0.1511890585598294</v>
+        <v>0.1346052826548032</v>
       </c>
       <c r="F17">
-        <v>4.060640141539352</v>
+        <v>3.174584724031405</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.593017924810212</v>
+        <v>1.417040221467417</v>
       </c>
       <c r="J17">
-        <v>0.3383417956801651</v>
+        <v>0.2392885843727584</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.081547542848284</v>
+        <v>2.087641522741421</v>
       </c>
       <c r="C18">
-        <v>2.19276799933067</v>
+        <v>0.8734846043908533</v>
       </c>
       <c r="D18">
-        <v>0.02933510396381678</v>
+        <v>0.06587810844639108</v>
       </c>
       <c r="E18">
-        <v>0.1475133708164513</v>
+        <v>0.1339417973469246</v>
       </c>
       <c r="F18">
-        <v>3.966414033625625</v>
+        <v>3.158587592075406</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.560659311820118</v>
+        <v>1.412295412065319</v>
       </c>
       <c r="J18">
-        <v>0.3297960088781622</v>
+        <v>0.2377120983199887</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.033358903850058</v>
+        <v>2.076245831244421</v>
       </c>
       <c r="C19">
-        <v>2.171558453817283</v>
+        <v>0.8686654721012701</v>
       </c>
       <c r="D19">
-        <v>0.02911762387739003</v>
+        <v>0.0658386508768487</v>
       </c>
       <c r="E19">
-        <v>0.1462759157123941</v>
+        <v>0.1337183554010437</v>
       </c>
       <c r="F19">
-        <v>3.934789422187606</v>
+        <v>3.153206223576802</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.549824342431037</v>
+        <v>1.410704598339521</v>
       </c>
       <c r="J19">
-        <v>0.3269228257922236</v>
+        <v>0.2371808575220484</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.251055261478427</v>
+        <v>2.127597016315121</v>
       </c>
       <c r="C20">
-        <v>2.267452466828615</v>
+        <v>0.8903846704394596</v>
       </c>
       <c r="D20">
-        <v>0.03009702875379361</v>
+        <v>0.06601733592063397</v>
       </c>
       <c r="E20">
-        <v>0.1518727857771545</v>
+        <v>0.1347286505596301</v>
       </c>
       <c r="F20">
-        <v>4.078214826416342</v>
+        <v>3.177562083442524</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.59906562570886</v>
+        <v>1.417925850269626</v>
       </c>
       <c r="J20">
-        <v>0.3399332974537117</v>
+        <v>0.2395815604074159</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.998932238571399</v>
+        <v>2.301350205025301</v>
       </c>
       <c r="C21">
-        <v>2.598405534760502</v>
+        <v>0.9639341150633527</v>
       </c>
       <c r="D21">
-        <v>0.0334020509750701</v>
+        <v>0.06663710553696944</v>
       </c>
       <c r="E21">
-        <v>0.1712215780698614</v>
+        <v>0.1382069944566666</v>
       </c>
       <c r="F21">
-        <v>4.581506967348588</v>
+        <v>3.261847327021513</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.773780236031371</v>
+        <v>1.44328933912972</v>
       </c>
       <c r="J21">
-        <v>0.385209462268719</v>
+        <v>0.2478248225463204</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.502264366287193</v>
+        <v>2.415826630459208</v>
       </c>
       <c r="C22">
-        <v>2.822456671685245</v>
+        <v>1.012439540589696</v>
       </c>
       <c r="D22">
-        <v>0.03557517353323902</v>
+        <v>0.06705637066156811</v>
       </c>
       <c r="E22">
-        <v>0.1843408077609823</v>
+        <v>0.1405430838728066</v>
       </c>
       <c r="F22">
-        <v>4.929015547874712</v>
+        <v>3.318783462534299</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.895980143798937</v>
+        <v>1.460697256997435</v>
       </c>
       <c r="J22">
-        <v>0.4161638473639471</v>
+        <v>0.2533458026805704</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.232134362266152</v>
+        <v>2.35464374359691</v>
       </c>
       <c r="C23">
-        <v>2.702080917212811</v>
+        <v>0.9865108519377372</v>
       </c>
       <c r="D23">
-        <v>0.03441396768032234</v>
+        <v>0.06683131722039803</v>
       </c>
       <c r="E23">
-        <v>0.1772907096957397</v>
+        <v>0.1392905061520651</v>
       </c>
       <c r="F23">
-        <v>4.741659580847852</v>
+        <v>3.288224755190413</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.829949051253067</v>
+        <v>1.451329554171679</v>
       </c>
       <c r="J23">
-        <v>0.3995041572770219</v>
+        <v>0.2503868400755351</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.239043880652446</v>
+        <v>2.124772486885092</v>
       </c>
       <c r="C24">
-        <v>2.262156303158349</v>
+        <v>0.8891898077597489</v>
       </c>
       <c r="D24">
-        <v>0.03004319598956329</v>
+        <v>0.06600744969792771</v>
       </c>
       <c r="E24">
-        <v>0.1515635442928058</v>
+        <v>0.1346728550381755</v>
       </c>
       <c r="F24">
-        <v>4.07026418242279</v>
+        <v>3.176215405528922</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.596329222566453</v>
+        <v>1.417525178638954</v>
       </c>
       <c r="J24">
-        <v>0.3392134082000666</v>
+        <v>0.2394490621652068</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.216308699770309</v>
+        <v>1.880703683865192</v>
       </c>
       <c r="C25">
-        <v>1.813458251239183</v>
+        <v>0.7860400888337722</v>
       </c>
       <c r="D25">
-        <v>0.0253703808961383</v>
+        <v>0.06518146600801344</v>
       </c>
       <c r="E25">
-        <v>0.1254300353307691</v>
+        <v>0.129959839104238</v>
       </c>
       <c r="F25">
-        <v>3.409787116287276</v>
+        <v>3.063194701740883</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.371998448350524</v>
+        <v>1.384561511340095</v>
       </c>
       <c r="J25">
-        <v>0.2788208338807294</v>
+        <v>0.2282148771385124</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_241/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_241/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.704230555368213</v>
+        <v>3.492166546859323</v>
       </c>
       <c r="C2">
-        <v>0.7115922907102572</v>
+        <v>1.498530536136855</v>
       </c>
       <c r="D2">
-        <v>0.06462893496600586</v>
+        <v>0.02195262508733364</v>
       </c>
       <c r="E2">
-        <v>0.126717272406907</v>
+        <v>0.1071990289425599</v>
       </c>
       <c r="F2">
-        <v>2.986501631082632</v>
+        <v>2.96373066920151</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.363216454538374</v>
+        <v>1.224502591129308</v>
       </c>
       <c r="J2">
-        <v>0.2204158715211832</v>
+        <v>0.2372417913680778</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.586601651986484</v>
+        <v>3.014288461580179</v>
       </c>
       <c r="C3">
-        <v>0.6620414870534432</v>
+        <v>1.292029301576122</v>
       </c>
       <c r="D3">
-        <v>0.06429010423659065</v>
+        <v>0.01964583753736804</v>
       </c>
       <c r="E3">
-        <v>0.1246604846344717</v>
+        <v>0.09532147589378326</v>
       </c>
       <c r="F3">
-        <v>2.938505611647486</v>
+        <v>2.680685796017002</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.350534565481667</v>
+        <v>1.133109621605144</v>
       </c>
       <c r="J3">
-        <v>0.215419335374591</v>
+        <v>0.2104216981479112</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.515334518319605</v>
+        <v>2.725792844507851</v>
       </c>
       <c r="C4">
-        <v>0.6320526742333641</v>
+        <v>1.167903851331573</v>
       </c>
       <c r="D4">
-        <v>0.06409995989444539</v>
+        <v>0.01823297808507007</v>
       </c>
       <c r="E4">
-        <v>0.1234666764559051</v>
+        <v>0.08822173708061243</v>
       </c>
       <c r="F4">
-        <v>2.910970408700209</v>
+        <v>2.514758160677061</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.343614453065243</v>
+        <v>1.080532282025708</v>
       </c>
       <c r="J4">
-        <v>0.2124921238356663</v>
+        <v>0.1945008700637842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.486532062299716</v>
+        <v>2.609278938375155</v>
       </c>
       <c r="C5">
-        <v>0.6199403482800676</v>
+        <v>1.117893909460292</v>
       </c>
       <c r="D5">
-        <v>0.06402702871518784</v>
+        <v>0.01765798809715591</v>
       </c>
       <c r="E5">
-        <v>0.1229975236956768</v>
+        <v>0.08537150477265953</v>
       </c>
       <c r="F5">
-        <v>2.900232230864759</v>
+        <v>2.448902603413941</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.341010528148999</v>
+        <v>1.059905288702723</v>
       </c>
       <c r="J5">
-        <v>0.2113344033914828</v>
+        <v>0.1881342599429772</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.481763864135303</v>
+        <v>2.589990208277584</v>
       </c>
       <c r="C6">
-        <v>0.6179356167092465</v>
+        <v>1.109621666895578</v>
       </c>
       <c r="D6">
-        <v>0.06401519519098642</v>
+        <v>0.01756255446677457</v>
       </c>
       <c r="E6">
-        <v>0.122920667204145</v>
+        <v>0.08490066816076691</v>
       </c>
       <c r="F6">
-        <v>2.898478203933479</v>
+        <v>2.438067804418623</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.340591145240332</v>
+        <v>1.056525937471882</v>
       </c>
       <c r="J6">
-        <v>0.2111442805295667</v>
+        <v>0.1870839685188557</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.514945110331269</v>
+        <v>2.724217478374783</v>
       </c>
       <c r="C7">
-        <v>0.6318888859561298</v>
+        <v>1.167227205828397</v>
       </c>
       <c r="D7">
-        <v>0.0640989578083726</v>
+        <v>0.0182252206243696</v>
       </c>
       <c r="E7">
-        <v>0.1234602791568271</v>
+        <v>0.08818313085620844</v>
       </c>
       <c r="F7">
-        <v>2.910823640692897</v>
+        <v>2.513863148100782</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.343578463156391</v>
+        <v>1.080250979142654</v>
       </c>
       <c r="J7">
-        <v>0.212476368429428</v>
+        <v>0.1944145370590817</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.663472547840229</v>
+        <v>3.326253032243983</v>
       </c>
       <c r="C8">
-        <v>0.6944160393873631</v>
+        <v>1.426712702588475</v>
       </c>
       <c r="D8">
-        <v>0.06450842268690948</v>
+        <v>0.02115642989812017</v>
       </c>
       <c r="E8">
-        <v>0.125993735023922</v>
+        <v>0.1030600106850201</v>
       </c>
       <c r="F8">
-        <v>2.969548761537482</v>
+        <v>2.864367822982672</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.358662755243699</v>
+        <v>1.192198192101998</v>
       </c>
       <c r="J8">
-        <v>0.2186637237227274</v>
+        <v>0.2278704142008507</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.962409578618633</v>
+        <v>4.555565669945963</v>
       </c>
       <c r="C9">
-        <v>0.8205485658610314</v>
+        <v>1.961799944051677</v>
       </c>
       <c r="D9">
-        <v>0.06545117601579165</v>
+        <v>0.02694013055706534</v>
       </c>
       <c r="E9">
-        <v>0.1315118951701102</v>
+        <v>0.1340533827883696</v>
       </c>
       <c r="F9">
-        <v>3.100240432245783</v>
+        <v>3.62514722609086</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.395205310009516</v>
+        <v>1.444452947137648</v>
       </c>
       <c r="J9">
-        <v>0.2319248999536256</v>
+        <v>0.2986496977375026</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.186854196268257</v>
+        <v>5.504084915386898</v>
       </c>
       <c r="C10">
-        <v>0.9154579630124999</v>
+        <v>2.379161662630509</v>
       </c>
       <c r="D10">
-        <v>0.06622621222041403</v>
+        <v>0.03122550439204019</v>
       </c>
       <c r="E10">
-        <v>0.1359049820292739</v>
+        <v>0.1583986572849199</v>
       </c>
       <c r="F10">
-        <v>3.205994922406006</v>
+        <v>4.246692415705525</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.426421110286142</v>
+        <v>1.657230629147918</v>
       </c>
       <c r="J10">
-        <v>0.2423728667186822</v>
+        <v>0.3551527055511201</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.290037890962651</v>
+        <v>5.949673644508209</v>
       </c>
       <c r="C11">
-        <v>0.9591429206125781</v>
+        <v>2.576535493645281</v>
       </c>
       <c r="D11">
-        <v>0.06659611178709213</v>
+        <v>0.03318718057817449</v>
       </c>
       <c r="E11">
-        <v>0.1379779485213604</v>
+        <v>0.1699417083954415</v>
       </c>
       <c r="F11">
-        <v>3.256278357772828</v>
+        <v>4.547869856044997</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.441597586395034</v>
+        <v>1.762016414495264</v>
       </c>
       <c r="J11">
-        <v>0.2472829179435792</v>
+        <v>0.3822005637457124</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.329268775899891</v>
+        <v>6.12086124923718</v>
       </c>
       <c r="C12">
-        <v>0.9757602543107282</v>
+        <v>2.652583615816695</v>
       </c>
       <c r="D12">
-        <v>0.06673862651983598</v>
+        <v>0.03393222491230574</v>
       </c>
       <c r="E12">
-        <v>0.1387737041176109</v>
+        <v>0.17439277994945</v>
       </c>
       <c r="F12">
-        <v>3.275636784759627</v>
+        <v>4.665056479148831</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>1.447487059101348</v>
+        <v>1.803050352963638</v>
       </c>
       <c r="J12">
-        <v>0.249165134036474</v>
+        <v>0.392673181154052</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.320812670831742</v>
+        <v>6.08387627443949</v>
       </c>
       <c r="C13">
-        <v>0.9721780648827689</v>
+        <v>2.636143119977646</v>
       </c>
       <c r="D13">
-        <v>0.06670782561718624</v>
+        <v>0.03377166041286728</v>
       </c>
       <c r="E13">
-        <v>0.1386018441569092</v>
+        <v>0.1734303803906059</v>
       </c>
       <c r="F13">
-        <v>3.271453423834743</v>
+        <v>4.639670037339187</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.446212285892841</v>
+        <v>1.794149100878585</v>
       </c>
       <c r="J13">
-        <v>0.2487587427600886</v>
+        <v>0.3904068206437046</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.293262273344112</v>
+        <v>5.96370549359392</v>
       </c>
       <c r="C14">
-        <v>0.9605085314994426</v>
+        <v>2.582764383053188</v>
       </c>
       <c r="D14">
-        <v>0.06660778790845256</v>
+        <v>0.03324842887408863</v>
       </c>
       <c r="E14">
-        <v>0.1380431997022384</v>
+        <v>0.1703062177901629</v>
       </c>
       <c r="F14">
-        <v>3.257864605058842</v>
+        <v>4.557444901167713</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.442079249507671</v>
+        <v>1.765363867922474</v>
       </c>
       <c r="J14">
-        <v>0.247437308705031</v>
+        <v>0.3830573046291335</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.276407419070324</v>
+        <v>5.890430724663474</v>
       </c>
       <c r="C15">
-        <v>0.9533703878877873</v>
+        <v>2.550245977724444</v>
       </c>
       <c r="D15">
-        <v>0.06654682843423387</v>
+        <v>0.032928235625306</v>
       </c>
       <c r="E15">
-        <v>0.1377024177326405</v>
+        <v>0.1684034046560043</v>
       </c>
       <c r="F15">
-        <v>3.249582498917107</v>
+        <v>4.507504090767412</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.439566261556735</v>
+        <v>1.747915073502156</v>
       </c>
       <c r="J15">
-        <v>0.2466308810145676</v>
+        <v>0.3785866950287158</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.180132835181212</v>
+        <v>5.475283109440397</v>
       </c>
       <c r="C16">
-        <v>0.9126134354957571</v>
+        <v>2.366432482516359</v>
       </c>
       <c r="D16">
-        <v>0.0662023828362166</v>
+        <v>0.03109758608117374</v>
       </c>
       <c r="E16">
-        <v>0.1357710128125618</v>
+        <v>0.1576547458308468</v>
       </c>
       <c r="F16">
-        <v>3.202752926076101</v>
+        <v>4.227420400199975</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.425449114453656</v>
+        <v>1.650560151625669</v>
       </c>
       <c r="J16">
-        <v>0.2420551706396736</v>
+        <v>0.3534151242210868</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.121350035276237</v>
+        <v>5.224495713021327</v>
       </c>
       <c r="C17">
-        <v>0.8877420390747943</v>
+        <v>2.25574241202213</v>
       </c>
       <c r="D17">
-        <v>0.06599547948132312</v>
+        <v>0.02997796170493672</v>
       </c>
       <c r="E17">
-        <v>0.1346052826548032</v>
+        <v>0.1511890585597548</v>
       </c>
       <c r="F17">
-        <v>3.174584724031405</v>
+        <v>4.060640141539352</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.417040221467417</v>
+        <v>1.593017924810212</v>
       </c>
       <c r="J17">
-        <v>0.2392885843727584</v>
+        <v>0.3383417956803498</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.087641522741421</v>
+        <v>5.081547542848398</v>
       </c>
       <c r="C18">
-        <v>0.8734846043908533</v>
+        <v>2.192767999331068</v>
       </c>
       <c r="D18">
-        <v>0.06587810844639108</v>
+        <v>0.02933510396382388</v>
       </c>
       <c r="E18">
-        <v>0.1339417973469246</v>
+        <v>0.1475133708164122</v>
       </c>
       <c r="F18">
-        <v>3.158587592075406</v>
+        <v>3.966414033625597</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.412295412065319</v>
+        <v>1.560659311820132</v>
       </c>
       <c r="J18">
-        <v>0.2377120983199887</v>
+        <v>0.329796008878148</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.076245831244421</v>
+        <v>5.033358903850228</v>
       </c>
       <c r="C19">
-        <v>0.8686654721012701</v>
+        <v>2.171558453817227</v>
       </c>
       <c r="D19">
-        <v>0.0658386508768487</v>
+        <v>0.02911762387702765</v>
       </c>
       <c r="E19">
-        <v>0.1337183554010437</v>
+        <v>0.146275915712323</v>
       </c>
       <c r="F19">
-        <v>3.153206223576802</v>
+        <v>3.934789422187635</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.410704598339521</v>
+        <v>1.549824342431009</v>
       </c>
       <c r="J19">
-        <v>0.2371808575220484</v>
+        <v>0.3269228257923089</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.127597016315121</v>
+        <v>5.251055261478427</v>
       </c>
       <c r="C20">
-        <v>0.8903846704394596</v>
+        <v>2.267452466828786</v>
       </c>
       <c r="D20">
-        <v>0.06601733592063397</v>
+        <v>0.03009702875342413</v>
       </c>
       <c r="E20">
-        <v>0.1347286505596301</v>
+        <v>0.151872785777126</v>
       </c>
       <c r="F20">
-        <v>3.177562083442524</v>
+        <v>4.078214826416342</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.417925850269626</v>
+        <v>1.599065625708874</v>
       </c>
       <c r="J20">
-        <v>0.2395815604074159</v>
+        <v>0.3399332974537828</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.301350205025301</v>
+        <v>5.998932238571228</v>
       </c>
       <c r="C21">
-        <v>0.9639341150633527</v>
+        <v>2.598405534760445</v>
       </c>
       <c r="D21">
-        <v>0.06663710553696944</v>
+        <v>0.03340205097471483</v>
       </c>
       <c r="E21">
-        <v>0.1382069944566666</v>
+        <v>0.1712215780698116</v>
       </c>
       <c r="F21">
-        <v>3.261847327021513</v>
+        <v>4.581506967348503</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.44328933912972</v>
+        <v>1.773780236031385</v>
       </c>
       <c r="J21">
-        <v>0.2478248225463204</v>
+        <v>0.3852094622688611</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.415826630459208</v>
+        <v>6.50226436628725</v>
       </c>
       <c r="C22">
-        <v>1.012439540589696</v>
+        <v>2.8224566716857</v>
       </c>
       <c r="D22">
-        <v>0.06705637066156811</v>
+        <v>0.03557517353287665</v>
       </c>
       <c r="E22">
-        <v>0.1405430838728066</v>
+        <v>0.184340807760961</v>
       </c>
       <c r="F22">
-        <v>3.318783462534299</v>
+        <v>4.929015547874656</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.460697256997435</v>
+        <v>1.895980143798951</v>
       </c>
       <c r="J22">
-        <v>0.2533458026805704</v>
+        <v>0.4161638473639613</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.35464374359691</v>
+        <v>6.232134362266265</v>
       </c>
       <c r="C23">
-        <v>0.9865108519377372</v>
+        <v>2.702080917212584</v>
       </c>
       <c r="D23">
-        <v>0.06683131722039803</v>
+        <v>0.03441396768032234</v>
       </c>
       <c r="E23">
-        <v>0.1392905061520651</v>
+        <v>0.1772907096957113</v>
       </c>
       <c r="F23">
-        <v>3.288224755190413</v>
+        <v>4.74165958084788</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.451329554171679</v>
+        <v>1.829949051253081</v>
       </c>
       <c r="J23">
-        <v>0.2503868400755351</v>
+        <v>0.3995041572767235</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.124772486885092</v>
+        <v>5.239043880652275</v>
       </c>
       <c r="C24">
-        <v>0.8891898077597489</v>
+        <v>2.262156303158122</v>
       </c>
       <c r="D24">
-        <v>0.06600744969792771</v>
+        <v>0.03004319598976934</v>
       </c>
       <c r="E24">
-        <v>0.1346728550381755</v>
+        <v>0.1515635442927774</v>
       </c>
       <c r="F24">
-        <v>3.176215405528922</v>
+        <v>4.070264182422818</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.417525178638954</v>
+        <v>1.596329222566467</v>
       </c>
       <c r="J24">
-        <v>0.2394490621652068</v>
+        <v>0.3392134081999671</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.880703683865192</v>
+        <v>4.216308699770252</v>
       </c>
       <c r="C25">
-        <v>0.7860400888337722</v>
+        <v>1.81345825123924</v>
       </c>
       <c r="D25">
-        <v>0.06518146600801344</v>
+        <v>0.02537038089633725</v>
       </c>
       <c r="E25">
-        <v>0.129959839104238</v>
+        <v>0.1254300353307904</v>
       </c>
       <c r="F25">
-        <v>3.063194701740883</v>
+        <v>3.409787116287333</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.384561511340095</v>
+        <v>1.371998448350553</v>
       </c>
       <c r="J25">
-        <v>0.2282148771385124</v>
+        <v>0.2788208338806868</v>
       </c>
       <c r="K25">
         <v>0</v>
